--- a/scenario/ScenarioPlay3.xlsx
+++ b/scenario/ScenarioPlay3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ちほ\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyoht\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F2E9390-3F01-4BF0-ADE8-08715C3A8DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B70E5F0-AFCC-4B4C-8AE2-1D8B01E1358A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25D0B180-FD41-4912-AA06-F939E6FD00E3}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="9684" xr2:uid="{25D0B180-FD41-4912-AA06-F939E6FD00E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="186">
   <si>
     <t>【場所】</t>
   </si>
@@ -139,12 +139,1242 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>江永</t>
+  </si>
+  <si>
+    <t>たしかに</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>……声に出ていましたか</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ううん。なんとなく</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>貴方は昔からそういうところがありますね</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あずさは……、わかりやすい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そんな風に言うのは、貴方くらいですよ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>……今も、昔も</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>鷹森</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>驚き</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>タカモリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オドロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>江永_通常</t>
+    <rPh sb="0" eb="2">
+      <t>エナガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>江永</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>笑顔</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>エナガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エガオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>………</t>
+  </si>
+  <si>
+    <t>キーンコーンカーンコーン……</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なあなあ、今日は何する？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ドッジボールしようぜ！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>じゃあ校庭集合な！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>たかもりは？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あの子はいいよ。ちょっと怖いし……</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>何考えてるかわかんないもん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>…………</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なあ、2人で何の話してるんだ？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>……ひみつ～</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>貴方には関係ありません。お気になさらず</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>つれねぇの……</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>雉真</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>……縺翫……＞縺……</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陽希、何か言った？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いや、何も……</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>……閨……医※繧具ｼ……</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>声が近づいてきているような……</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>縺昴▲縺｡縺ｯ蜊ｱ縺ｪ縺～</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>うわぁ！なんだコイツ！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>人間……？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>（悪い予感はしないけれど……）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>白鷺</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>どうしよう？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あの、少しお話を……</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>縺ｪ縺ゅ↑縺ゅ％繧瑚◇縺薙∴縺ｦ縺ｭ縺医??</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>何か喋ってるのは分かるんだけど……</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>襲ってくる気は……</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あるみたいですね</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>言ってる場合か、逃げろ！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>安全そうなところは……</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>隧ｱ繧定◇縺代蜑阪ｉ?</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>追っかけてくるぞ！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>わぁっ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>こより！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おい、大丈夫か？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(メモ：効果音)</t>
+    <rPh sb="4" eb="7">
+      <t>コウカオン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>手をっ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>うん……ありがと</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>……ひとまず、あそこの部屋に逃げ込もう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(カチャッ)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お化け相手に鍵が意味あるのかは分かんねえけどな……</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入ってきたら殴って叩き出しましょう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鍵が意味ない時点で物理攻撃は諦めたほうがいいんじゃないかな、多分</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>……！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>こより？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>だれかいる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>……貴様等、この学校の生徒じゃないな？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>…………？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>誰だアンタ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>明らかに、生者ではありませんね</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>……</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>……</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>気をつけて</t>
+    </r>
+  </si>
+  <si>
+    <t>なぜここにいる？どうやって入った</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あなた、幽霊ですよね？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>……何を言っている</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>なあ、これ、自分が死んでること気づいてないパターンか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>……</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>？</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>（コクコク）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>貴方、自分が既に死んでいることに気づいてないのですか？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なんで面と向かって言っちゃうかなぁ、お馬鹿さん！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>わけの分からないことをぬかすな。質問に答えろ</t>
+  </si>
+  <si>
+    <t>勝手に入ったことは謝りますが……</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勝手に敷地内に侵入し、あまつさえ私の教室に入り込んでくるとは</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>それになんだ、そのふざけた髪や服は……</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見ているだけで反吐が出る</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すんません、迷い込んじゃっただけなんすよ俺たち……</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>言い訳は無用だ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>……</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>この学園に下賤な男が踏み入るなど、言語道断</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>でも</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>……</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>口答えするな！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>……貴様等には指導が必要なようだな</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>……くる！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ねえ、見てるならたすけて……！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>逃さんぞ！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鍵が動かない……！？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これじゃ逃げられない……！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>蜊ｱ縺ｪ縺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>▲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>縺ｦ險</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>縺｣縺溘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>□</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>繧搾ｼ～！</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>うわっ！？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(メモ：しのくん解放音)</t>
+    <rPh sb="8" eb="10">
+      <t>カイホウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>はいはーい、どいたどいた！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>き、貴様っ……</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>残念だけど、もう同じ手は食らわねえのよ、っと！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>た、助かった……</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おい、逃げるなら今だ！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おいお前ら、大丈夫か？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>貴方、さっきの……</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>廊下で見た幽霊さん……？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>男教師</t>
+  </si>
+  <si>
+    <t>男教師</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>キョウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>何をきこう？</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>何を話そう？</t>
+    <rPh sb="3" eb="4">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>教室</t>
+    <rPh sb="0" eb="2">
+      <t>キョウシツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ちぇ、まだやりたいことあったのになぁ……</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>別に襲ってたつもりはなかったんだぜ？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ていうかお前ら、俺の話全然聞いてくれなかったじゃん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>こっちはちゃんと忠告してやってたっていうのに……</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>まあ、恩は返すよ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ほら、これ持っていきな</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(なんかしら)を手に入れた！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アイツが起きてこないうちに逃げちまいな</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>……ありがとう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いいってことよ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>……また助けてもらっちゃったね</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>……こより？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あれ、あずさ。どうかした？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いや……別に、何もありません</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>（……相変わらず、不思議な子だ）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今日はね、きゅーしょくのプリン2こ食べたの</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>……あずさ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かえろ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おてて</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>……うん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(過去回想)</t>
+    <rPh sb="1" eb="3">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なぜ私たちを襲って来たんですか？</t>
+    <rPh sb="2" eb="3">
+      <t>ワタシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>志乃</t>
+    <rPh sb="0" eb="2">
+      <t>シノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>こよりを助ける</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(51)</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>タス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>とにかく走る</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(53)</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はなしかける</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(35)</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>逃げる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(44)</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あなたは幽霊では？(69)</t>
+    <rPh sb="4" eb="6">
+      <t>ユウレイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勝手に入ってすみません(76)</t>
+    <rPh sb="0" eb="2">
+      <t>カッテ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>こより、何を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>……</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>たたかう</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(88)</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>にげる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(91)</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>………(メモ：暗転して遷移)</t>
+    <rPh sb="7" eb="9">
+      <t>アンテン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「キミ」の力が必要のようだ (説明：ファイルをダウンロード後、プログラムの間違いを正してアップロードしましょう。)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>俺もお前らみたいにこの学校に肝試しに来たんだけど</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>……</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、さっきの男に殺されちゃってさ</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>そう。志乃旭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>しのあきら</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。旭でいいよ</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>シノ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アキラ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アキラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アキラさんはどうして幽霊に？</t>
+    <rPh sb="10" eb="12">
+      <t>ユウレイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>どうして幽霊に？(108)</t>
+    <rPh sb="4" eb="6">
+      <t>ユウレイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>どうして襲ってきたの？(111)</t>
+    <rPh sb="4" eb="5">
+      <t>オソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>雉真_通常</t>
+  </si>
+  <si>
+    <t>江永_どや</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>雉真</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>真顔</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⽩鷺_考察</t>
+  </si>
+  <si>
+    <t>雉真_焦り</t>
+  </si>
+  <si>
+    <t>⽩鷺_恐怖</t>
+  </si>
+  <si>
+    <t>⽩鷺_恐怖</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鷹森_驚き</t>
+  </si>
+  <si>
+    <t>鷹森_驚き</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>江永_通常</t>
+  </si>
+  <si>
+    <t>雉真_考察</t>
+  </si>
+  <si>
+    <t>鷹森_戦闘</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>江永</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>通常</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鷹森_通常</t>
+  </si>
+  <si>
+    <t>鷹森_江永ピンチ</t>
+  </si>
+  <si>
+    <t>⽩鷺_通常</t>
+  </si>
+  <si>
+    <t>江永_おこ</t>
+  </si>
+  <si>
+    <t>雉真_怒る</t>
+  </si>
+  <si>
+    <t>⽩鷺_怒る</t>
+  </si>
+  <si>
+    <t>江永_笑顔</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>【ストーリークリア】四章に続く</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <rPh sb="10" eb="11">
+      <t>ヨン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +1431,34 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -224,7 +1482,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -244,6 +1502,12 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -582,8 +1846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1261D181-1F27-462E-B3B3-FB17943DCDCA}">
   <dimension ref="A1:P143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -682,11 +1946,21 @@
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="1"/>
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -700,11 +1974,21 @@
       <c r="P3" s="2"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="1"/>
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -718,11 +2002,21 @@
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="1"/>
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -736,11 +2030,21 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="1"/>
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -754,11 +2058,21 @@
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -772,11 +2086,21 @@
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="1"/>
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -790,11 +2114,21 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="1"/>
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -808,10 +2142,16 @@
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="1"/>
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="4"/>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -825,11 +2165,17 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:16" ht="27.6">
+      <c r="A11" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="4"/>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -843,11 +2189,17 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:16" ht="27.6">
+      <c r="A12" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="4"/>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -861,11 +2213,17 @@
       <c r="O12" s="1"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:16" ht="27.6">
+      <c r="A13" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -879,11 +2237,17 @@
       <c r="O13" s="1"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="1"/>
+    <row r="14" spans="1:16" ht="27.6">
+      <c r="A14" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="4"/>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -897,11 +2261,17 @@
       <c r="O14" s="1"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="1"/>
+    <row r="15" spans="1:16" ht="27.6">
+      <c r="A15" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="4"/>
+      <c r="C15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -915,11 +2285,17 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:16" ht="27.6">
+      <c r="A16" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="4"/>
+      <c r="C16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -933,11 +2309,17 @@
       <c r="O16" s="1"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="1"/>
+    <row r="17" spans="1:16" ht="27.6">
+      <c r="A17" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="4"/>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -951,11 +2333,19 @@
       <c r="O17" s="1"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="4"/>
+    <row r="18" spans="1:16" ht="27.6">
+      <c r="A18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -969,11 +2359,17 @@
       <c r="O18" s="1"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="1"/>
+    <row r="19" spans="1:16" ht="27.6">
+      <c r="A19" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="4"/>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="4">
+        <v>5</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -988,11 +2384,21 @@
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="1"/>
+      <c r="A20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1006,11 +2412,21 @@
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="1"/>
+      <c r="A21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1024,11 +2440,21 @@
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="2"/>
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1042,11 +2468,21 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="1"/>
+      <c r="A23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1060,10 +2496,16 @@
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="1"/>
+      <c r="A24" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="4"/>
+      <c r="C24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="4">
+        <v>5</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1078,10 +2520,16 @@
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="1"/>
+      <c r="A25" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="4"/>
+      <c r="C25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1096,11 +2544,21 @@
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="1"/>
+      <c r="A26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1114,11 +2572,21 @@
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="1"/>
+      <c r="A27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1132,10 +2600,16 @@
       <c r="P27" s="2"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="1"/>
+      <c r="A28" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="4"/>
+      <c r="C28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1150,12 +2624,22 @@
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="A29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="1"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -1168,11 +2652,16 @@
       <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="1"/>
+      <c r="A30" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -1186,11 +2675,21 @@
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="1"/>
+      <c r="A31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -1204,11 +2703,21 @@
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="1"/>
+      <c r="A32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -1222,11 +2731,21 @@
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="1"/>
+      <c r="A33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>174</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -1240,17 +2759,27 @@
       <c r="P33" s="1"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="1"/>
+      <c r="A34" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="4"/>
+      <c r="C34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="4">
+        <v>2</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
+      <c r="J34" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -1258,11 +2787,21 @@
       <c r="P34" s="1"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="1"/>
+      <c r="A35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -1276,11 +2815,16 @@
       <c r="P35" s="2"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="1"/>
+      <c r="A36" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -1294,11 +2838,21 @@
       <c r="P36" s="2"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="1"/>
+      <c r="A37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -1312,11 +2866,21 @@
       <c r="P37" s="1"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="1"/>
+      <c r="A38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -1330,10 +2894,15 @@
       <c r="P38" s="2"/>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="4"/>
+      <c r="A39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
       <c r="E39" s="1"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -1348,11 +2917,21 @@
       <c r="P39" s="2"/>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="1"/>
+      <c r="A40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -1366,11 +2945,21 @@
       <c r="P40" s="2"/>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="1"/>
+      <c r="A41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -1384,11 +2973,21 @@
       <c r="P41" s="2"/>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="1"/>
+      <c r="A42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -1402,28 +3001,46 @@
       <c r="P42" s="2"/>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="1"/>
+      <c r="A43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="4">
+        <v>3</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
+      <c r="L43" s="2">
+        <v>47</v>
+      </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="1"/>
       <c r="P43" s="2"/>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="1"/>
+      <c r="A44" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="4"/>
+      <c r="C44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
       <c r="E44" s="1"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -1438,11 +3055,21 @@
       <c r="P44" s="2"/>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="1"/>
+      <c r="A45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -1456,11 +3083,21 @@
       <c r="P45" s="2"/>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="1"/>
+      <c r="A46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -1474,11 +3111,21 @@
       <c r="P46" s="2"/>
     </row>
     <row r="47" spans="1:16">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="1"/>
+      <c r="A47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -1491,12 +3138,22 @@
       <c r="O47" s="1"/>
       <c r="P47" s="2"/>
     </row>
-    <row r="48" spans="1:16">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="2"/>
+    <row r="48" spans="1:16" ht="36">
+      <c r="A48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -1510,11 +3167,21 @@
       <c r="P48" s="2"/>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="1"/>
+      <c r="A49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -1527,30 +3194,50 @@
       <c r="O49" s="1"/>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="1:16">
-      <c r="A50" s="1"/>
+    <row r="50" spans="1:16" ht="26.4">
+      <c r="A50" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="4"/>
+      <c r="C50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="4">
+        <v>2</v>
+      </c>
       <c r="E50" s="1"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
+      <c r="J50" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>150</v>
+      </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="1"/>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="1:16">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="1"/>
+    <row r="51" spans="1:16" ht="36">
+      <c r="A51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -1564,11 +3251,21 @@
       <c r="P51" s="2"/>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="1"/>
+      <c r="A52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -1582,11 +3279,21 @@
       <c r="P52" s="2"/>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="1"/>
+      <c r="A53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>180</v>
+      </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -1600,10 +3307,16 @@
       <c r="P53" s="2"/>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="1"/>
+      <c r="A54" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="4"/>
+      <c r="C54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="4">
+        <v>5</v>
+      </c>
       <c r="E54" s="1"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -1618,10 +3331,16 @@
       <c r="P54" s="2"/>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="1"/>
+      <c r="A55" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="4"/>
+      <c r="C55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1</v>
+      </c>
       <c r="E55" s="1"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -1636,11 +3355,21 @@
       <c r="P55" s="2"/>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -1654,11 +3383,21 @@
       <c r="P56" s="2"/>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" s="4">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -1672,11 +3411,21 @@
       <c r="P57" s="2"/>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -1690,11 +3439,21 @@
       <c r="P58" s="2"/>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="1"/>
+      <c r="A59" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -1708,11 +3467,21 @@
       <c r="P59" s="2"/>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="4">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -1726,11 +3495,21 @@
       <c r="P60" s="2"/>
     </row>
     <row r="61" spans="1:16">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="1"/>
+      <c r="A61" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -1744,10 +3523,18 @@
       <c r="P61" s="2"/>
     </row>
     <row r="62" spans="1:16">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="4"/>
+      <c r="A62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1</v>
+      </c>
       <c r="E62" s="1"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -1762,11 +3549,21 @@
       <c r="P62" s="2"/>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="1"/>
+      <c r="A63" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -1780,11 +3577,21 @@
       <c r="P63" s="2"/>
     </row>
     <row r="64" spans="1:16">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="1"/>
+      <c r="A64" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -1798,11 +3605,21 @@
       <c r="P64" s="2"/>
     </row>
     <row r="65" spans="1:16">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="1"/>
+      <c r="A65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -1816,11 +3633,21 @@
       <c r="P65" s="2"/>
     </row>
     <row r="66" spans="1:16">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="1"/>
+      <c r="A66" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -1834,35 +3661,51 @@
       <c r="P66" s="2"/>
     </row>
     <row r="67" spans="1:16">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="4"/>
+      <c r="A67" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1</v>
+      </c>
       <c r="E67" s="1"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="1"/>
       <c r="P67" s="2"/>
     </row>
-    <row r="68" spans="1:16">
-      <c r="A68" s="1"/>
+    <row r="68" spans="1:16" ht="26.4">
+      <c r="A68" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="4"/>
+      <c r="C68" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D68" s="4">
+        <v>2</v>
+      </c>
       <c r="E68" s="1"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
+      <c r="J68" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>154</v>
+      </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -1870,11 +3713,21 @@
       <c r="P68" s="2"/>
     </row>
     <row r="69" spans="1:16">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" s="4">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -1888,10 +3741,18 @@
       <c r="P69" s="2"/>
     </row>
     <row r="70" spans="1:16">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="4"/>
+      <c r="A70" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1</v>
+      </c>
       <c r="E70" s="1"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -1906,11 +3767,21 @@
       <c r="P70" s="2"/>
     </row>
     <row r="71" spans="1:16">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="1"/>
+      <c r="A71" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
@@ -1924,11 +3795,21 @@
       <c r="P71" s="2"/>
     </row>
     <row r="72" spans="1:16">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="1"/>
+      <c r="A72" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -1942,11 +3823,21 @@
       <c r="P72" s="2"/>
     </row>
     <row r="73" spans="1:16">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="1"/>
+      <c r="A73" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -1960,11 +3851,21 @@
       <c r="P73" s="2"/>
     </row>
     <row r="74" spans="1:16">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="1"/>
+      <c r="A74" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
@@ -1978,10 +3879,18 @@
       <c r="P74" s="2"/>
     </row>
     <row r="75" spans="1:16">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="4"/>
+      <c r="A75" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1</v>
+      </c>
       <c r="E75" s="1"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -1996,11 +3905,21 @@
       <c r="P75" s="2"/>
     </row>
     <row r="76" spans="1:16">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="1"/>
+      <c r="A76" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
@@ -2014,10 +3933,18 @@
       <c r="P76" s="2"/>
     </row>
     <row r="77" spans="1:16">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="4"/>
+      <c r="A77" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1</v>
+      </c>
       <c r="E77" s="1"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -2032,10 +3959,18 @@
       <c r="P77" s="2"/>
     </row>
     <row r="78" spans="1:16">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="4"/>
+      <c r="A78" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D78" s="4">
+        <v>1</v>
+      </c>
       <c r="E78" s="1"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -2050,10 +3985,18 @@
       <c r="P78" s="2"/>
     </row>
     <row r="79" spans="1:16">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="4"/>
+      <c r="A79" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1</v>
+      </c>
       <c r="E79" s="1"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -2068,11 +4011,21 @@
       <c r="P79" s="2"/>
     </row>
     <row r="80" spans="1:16">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="1"/>
+      <c r="A80" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -2086,10 +4039,18 @@
       <c r="P80" s="2"/>
     </row>
     <row r="81" spans="1:16">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="4"/>
+      <c r="A81" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D81" s="4">
+        <v>1</v>
+      </c>
       <c r="E81" s="1"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -2104,10 +4065,18 @@
       <c r="P81" s="2"/>
     </row>
     <row r="82" spans="1:16">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="4"/>
+      <c r="A82" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D82" s="4">
+        <v>1</v>
+      </c>
       <c r="E82" s="1"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -2122,11 +4091,21 @@
       <c r="P82" s="2"/>
     </row>
     <row r="83" spans="1:16">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="1"/>
+      <c r="A83" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D83" s="4">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -2140,10 +4119,18 @@
       <c r="P83" s="2"/>
     </row>
     <row r="84" spans="1:16">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="4"/>
+      <c r="A84" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1</v>
+      </c>
       <c r="E84" s="1"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -2158,10 +4145,18 @@
       <c r="P84" s="2"/>
     </row>
     <row r="85" spans="1:16">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="4"/>
+      <c r="A85" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1</v>
+      </c>
       <c r="E85" s="1"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -2176,11 +4171,21 @@
       <c r="P85" s="2"/>
     </row>
     <row r="86" spans="1:16">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="1"/>
+      <c r="A86" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D86" s="4">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>183</v>
+      </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
@@ -2194,17 +4199,27 @@
       <c r="P86" s="2"/>
     </row>
     <row r="87" spans="1:16">
-      <c r="A87" s="1"/>
+      <c r="A87" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="4"/>
+      <c r="C87" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D87" s="4">
+        <v>2</v>
+      </c>
       <c r="E87" s="1"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
+      <c r="J87" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>157</v>
+      </c>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -2212,11 +4227,21 @@
       <c r="P87" s="2"/>
     </row>
     <row r="88" spans="1:16">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="1"/>
+      <c r="A88" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
@@ -2229,12 +4254,22 @@
       <c r="O88" s="1"/>
       <c r="P88" s="2"/>
     </row>
-    <row r="89" spans="1:16">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="1"/>
+    <row r="89" spans="1:16" ht="36">
+      <c r="A89" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D89" s="4">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
@@ -2247,11 +4282,16 @@
       <c r="O89" s="1"/>
       <c r="P89" s="2"/>
     </row>
-    <row r="90" spans="1:16">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="4"/>
+    <row r="90" spans="1:16" ht="26.4">
+      <c r="A90" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D90" s="4">
+        <v>4</v>
+      </c>
       <c r="E90" s="1"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -2259,17 +4299,28 @@
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+      <c r="M90" s="2">
+        <v>98</v>
+      </c>
+      <c r="N90" s="2">
+        <v>94</v>
+      </c>
       <c r="O90" s="1"/>
       <c r="P90" s="2"/>
     </row>
     <row r="91" spans="1:16">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="4"/>
+      <c r="A91" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1</v>
+      </c>
       <c r="E91" s="1"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -2284,11 +4335,21 @@
       <c r="P91" s="2"/>
     </row>
     <row r="92" spans="1:16">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="1"/>
+      <c r="A92" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D92" s="4">
+        <v>1</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -2302,28 +4363,46 @@
       <c r="P92" s="2"/>
     </row>
     <row r="93" spans="1:16">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="1"/>
+      <c r="A93" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D93" s="4">
+        <v>3</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
+      <c r="L93" s="2">
+        <v>88</v>
+      </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" s="1"/>
       <c r="P93" s="2"/>
     </row>
     <row r="94" spans="1:16">
-      <c r="A94" s="1"/>
+      <c r="A94" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="4"/>
+      <c r="C94" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D94" s="4">
+        <v>1</v>
+      </c>
       <c r="E94" s="1"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -2338,10 +4417,18 @@
       <c r="P94" s="2"/>
     </row>
     <row r="95" spans="1:16">
-      <c r="A95" s="1"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="4"/>
+      <c r="A95" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B95" t="s">
+        <v>120</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D95" s="4">
+        <v>1</v>
+      </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -2356,11 +4443,21 @@
       <c r="P95" s="1"/>
     </row>
     <row r="96" spans="1:16">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="1"/>
+      <c r="A96" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D96" s="4">
+        <v>1</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -2374,10 +4471,15 @@
       <c r="P96" s="2"/>
     </row>
     <row r="97" spans="1:16">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="4"/>
+      <c r="A97" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D97" s="4">
+        <v>3</v>
+      </c>
       <c r="E97" s="1"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
@@ -2385,17 +4487,25 @@
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
+      <c r="L97" s="2">
+        <v>121</v>
+      </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
       <c r="O97" s="1"/>
       <c r="P97" s="2"/>
     </row>
     <row r="98" spans="1:16">
-      <c r="A98" s="1"/>
+      <c r="A98" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="4"/>
+      <c r="C98" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D98" s="4">
+        <v>1</v>
+      </c>
       <c r="E98" s="1"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -2410,10 +4520,18 @@
       <c r="P98" s="2"/>
     </row>
     <row r="99" spans="1:16">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="4"/>
+      <c r="A99" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D99" s="4">
+        <v>1</v>
+      </c>
       <c r="E99" s="1"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -2428,10 +4546,18 @@
       <c r="P99" s="2"/>
     </row>
     <row r="100" spans="1:16">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="4"/>
+      <c r="A100" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D100" s="4">
+        <v>1</v>
+      </c>
       <c r="E100" s="1"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -2446,10 +4572,18 @@
       <c r="P100" s="2"/>
     </row>
     <row r="101" spans="1:16">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="4"/>
+      <c r="A101" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D101" s="4">
+        <v>1</v>
+      </c>
       <c r="E101" s="1"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -2464,11 +4598,21 @@
       <c r="P101" s="2"/>
     </row>
     <row r="102" spans="1:16">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="1"/>
+      <c r="A102" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D102" s="4">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>169</v>
+      </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
@@ -2482,10 +4626,18 @@
       <c r="P102" s="2"/>
     </row>
     <row r="103" spans="1:16">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="4"/>
+      <c r="A103" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D103" s="4">
+        <v>1</v>
+      </c>
       <c r="E103" s="1"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -2500,11 +4652,21 @@
       <c r="P103" s="2"/>
     </row>
     <row r="104" spans="1:16">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="1"/>
+      <c r="A104" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D104" s="4">
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>172</v>
+      </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
@@ -2518,11 +4680,21 @@
       <c r="P104" s="2"/>
     </row>
     <row r="105" spans="1:16">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="1"/>
+      <c r="A105" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D105" s="4">
+        <v>1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>184</v>
+      </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
@@ -2536,10 +4708,15 @@
       <c r="P105" s="2"/>
     </row>
     <row r="106" spans="1:16">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="4"/>
+      <c r="B106" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D106" s="4">
+        <v>1</v>
+      </c>
       <c r="E106" s="1"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -2553,18 +4730,28 @@
       <c r="O106" s="1"/>
       <c r="P106" s="2"/>
     </row>
-    <row r="107" spans="1:16">
-      <c r="A107" s="1"/>
+    <row r="107" spans="1:16" ht="54">
+      <c r="A107" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="4"/>
+      <c r="C107" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D107" s="4">
+        <v>2</v>
+      </c>
       <c r="E107" s="1"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
+      <c r="J107" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -2572,11 +4759,21 @@
       <c r="P107" s="2"/>
     </row>
     <row r="108" spans="1:16">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="1"/>
+      <c r="A108" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D108" s="4">
+        <v>1</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
@@ -2590,10 +4787,18 @@
       <c r="P108" s="2"/>
     </row>
     <row r="109" spans="1:16">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="4"/>
+      <c r="A109" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D109" s="4">
+        <v>1</v>
+      </c>
       <c r="E109" s="1"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
@@ -2608,10 +4813,18 @@
       <c r="P109" s="2"/>
     </row>
     <row r="110" spans="1:16">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="4"/>
+      <c r="A110" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D110" s="4">
+        <v>1</v>
+      </c>
       <c r="E110" s="1"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
@@ -2626,11 +4839,21 @@
       <c r="P110" s="2"/>
     </row>
     <row r="111" spans="1:16">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="1"/>
+      <c r="A111" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D111" s="4">
+        <v>1</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
@@ -2644,10 +4867,18 @@
       <c r="P111" s="2"/>
     </row>
     <row r="112" spans="1:16">
-      <c r="A112" s="1"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="4"/>
+      <c r="A112" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D112" s="4">
+        <v>1</v>
+      </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
@@ -2662,10 +4893,18 @@
       <c r="P112" s="2"/>
     </row>
     <row r="113" spans="1:16">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="4"/>
+      <c r="A113" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D113" s="4">
+        <v>1</v>
+      </c>
       <c r="E113" s="1"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -2680,10 +4919,18 @@
       <c r="P113" s="2"/>
     </row>
     <row r="114" spans="1:16">
-      <c r="A114" s="1"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="4"/>
+      <c r="A114" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D114" s="4">
+        <v>1</v>
+      </c>
       <c r="E114" s="1"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
@@ -2698,10 +4945,18 @@
       <c r="P114" s="2"/>
     </row>
     <row r="115" spans="1:16">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="4"/>
+      <c r="A115" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D115" s="4">
+        <v>1</v>
+      </c>
       <c r="E115" s="1"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
@@ -2716,10 +4971,18 @@
       <c r="P115" s="2"/>
     </row>
     <row r="116" spans="1:16">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="4"/>
+      <c r="A116" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D116" s="4">
+        <v>1</v>
+      </c>
       <c r="E116" s="1"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
@@ -2734,10 +4997,16 @@
       <c r="P116" s="2"/>
     </row>
     <row r="117" spans="1:16">
-      <c r="A117" s="1"/>
+      <c r="A117" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="4"/>
+      <c r="C117" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D117" s="4">
+        <v>1</v>
+      </c>
       <c r="E117" s="1"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
@@ -2752,10 +5021,18 @@
       <c r="P117" s="2"/>
     </row>
     <row r="118" spans="1:16">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="4"/>
+      <c r="A118" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D118" s="4">
+        <v>1</v>
+      </c>
       <c r="E118" s="1"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
@@ -2770,11 +5047,21 @@
       <c r="P118" s="2"/>
     </row>
     <row r="119" spans="1:16">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="1"/>
+      <c r="A119" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D119" s="4">
+        <v>1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>184</v>
+      </c>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
@@ -2788,10 +5075,18 @@
       <c r="P119" s="2"/>
     </row>
     <row r="120" spans="1:16">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="4"/>
+      <c r="A120" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D120" s="4">
+        <v>1</v>
+      </c>
       <c r="E120" s="1"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
@@ -2806,10 +5101,16 @@
       <c r="P120" s="2"/>
     </row>
     <row r="121" spans="1:16">
-      <c r="A121" s="1"/>
+      <c r="A121" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="4"/>
+      <c r="C121" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D121" s="4">
+        <v>5</v>
+      </c>
       <c r="E121" s="1"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
@@ -2824,11 +5125,21 @@
       <c r="P121" s="2"/>
     </row>
     <row r="122" spans="1:16">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="1"/>
+      <c r="A122" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D122" s="4">
+        <v>1</v>
+      </c>
+      <c r="E122" t="s">
+        <v>184</v>
+      </c>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
@@ -2842,11 +5153,21 @@
       <c r="P122" s="2"/>
     </row>
     <row r="123" spans="1:16">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="1"/>
+      <c r="A123" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D123" s="4">
+        <v>1</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
@@ -2860,11 +5181,21 @@
       <c r="P123" s="2"/>
     </row>
     <row r="124" spans="1:16">
-      <c r="A124" s="1"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="2"/>
+      <c r="A124" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D124" s="4">
+        <v>1</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
@@ -2878,11 +5209,21 @@
       <c r="P124" s="1"/>
     </row>
     <row r="125" spans="1:16">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="1"/>
+      <c r="A125" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D125" s="4">
+        <v>1</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
@@ -2896,11 +5237,21 @@
       <c r="P125" s="2"/>
     </row>
     <row r="126" spans="1:16">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="1"/>
+      <c r="A126" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D126" s="4">
+        <v>1</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
@@ -2914,11 +5265,16 @@
       <c r="P126" s="2"/>
     </row>
     <row r="127" spans="1:16">
-      <c r="A127" s="1"/>
+      <c r="A127" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="1"/>
+      <c r="C127" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D127" s="4">
+        <v>5</v>
+      </c>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
@@ -2931,11 +5287,19 @@
       <c r="O127" s="1"/>
       <c r="P127" s="2"/>
     </row>
-    <row r="128" spans="1:16">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="4"/>
+    <row r="128" spans="1:16" ht="27.6">
+      <c r="A128" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D128" s="4">
+        <v>1</v>
+      </c>
       <c r="E128" s="1"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
@@ -2949,11 +5313,19 @@
       <c r="O128" s="1"/>
       <c r="P128" s="2"/>
     </row>
-    <row r="129" spans="1:16">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="4"/>
+    <row r="129" spans="1:16" ht="27.6">
+      <c r="A129" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D129" s="4">
+        <v>1</v>
+      </c>
       <c r="E129" s="1"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
@@ -2967,11 +5339,19 @@
       <c r="O129" s="1"/>
       <c r="P129" s="2"/>
     </row>
-    <row r="130" spans="1:16">
-      <c r="A130" s="1"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="4"/>
+    <row r="130" spans="1:16" ht="27.6">
+      <c r="A130" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D130" s="4">
+        <v>1</v>
+      </c>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
@@ -2985,11 +5365,19 @@
       <c r="O130" s="1"/>
       <c r="P130" s="2"/>
     </row>
-    <row r="131" spans="1:16">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="4"/>
+    <row r="131" spans="1:16" ht="27.6">
+      <c r="A131" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D131" s="4">
+        <v>1</v>
+      </c>
       <c r="E131" s="1"/>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
@@ -3003,11 +5391,19 @@
       <c r="O131" s="1"/>
       <c r="P131" s="2"/>
     </row>
-    <row r="132" spans="1:16">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="4"/>
+    <row r="132" spans="1:16" ht="27.6">
+      <c r="A132" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D132" s="4">
+        <v>1</v>
+      </c>
       <c r="E132" s="1"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
@@ -3021,11 +5417,19 @@
       <c r="O132" s="1"/>
       <c r="P132" s="2"/>
     </row>
-    <row r="133" spans="1:16">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="4"/>
+    <row r="133" spans="1:16" ht="27.6">
+      <c r="A133" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D133" s="4">
+        <v>1</v>
+      </c>
       <c r="E133" s="1"/>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -3039,11 +5443,19 @@
       <c r="O133" s="1"/>
       <c r="P133" s="2"/>
     </row>
-    <row r="134" spans="1:16">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="4"/>
+    <row r="134" spans="1:16" ht="27.6">
+      <c r="A134" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D134" s="4">
+        <v>1</v>
+      </c>
       <c r="E134" s="1"/>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
@@ -3057,11 +5469,19 @@
       <c r="O134" s="1"/>
       <c r="P134" s="2"/>
     </row>
-    <row r="135" spans="1:16">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="4"/>
+    <row r="135" spans="1:16" ht="27.6">
+      <c r="A135" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D135" s="4">
+        <v>1</v>
+      </c>
       <c r="E135" s="1"/>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
@@ -3077,9 +5497,13 @@
     </row>
     <row r="136" spans="1:16">
       <c r="A136" s="1"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="4"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D136" s="4">
+        <v>0</v>
+      </c>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
@@ -3226,6 +5650,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="e5defd5c-cffd-4e83-941d-6d8fa922c6fc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100987C9D586AD9794C9C24C90F120C5A30" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="819bde8fc2ba238bbf7a9227ea3cf82c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e5defd5c-cffd-4e83-941d-6d8fa922c6fc" xmlns:ns4="904b3e69-eb53-409b-9389-7077b55d0612" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6c0a4684374731cda65eeed18f34e44e" ns3:_="" ns4:_="">
     <xsd:import namespace="e5defd5c-cffd-4e83-941d-6d8fa922c6fc"/>
@@ -3460,24 +5901,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EBAA745-AA79-4B68-A470-F091375F1006}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="e5defd5c-cffd-4e83-941d-6d8fa922c6fc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B587C473-3994-48FB-BF11-CA8E069FBFDB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="e5defd5c-cffd-4e83-941d-6d8fa922c6fc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="904b3e69-eb53-409b-9389-7077b55d0612"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0A1900-8721-41FD-87BD-2F63E8AC7D21}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3494,29 +5943,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EBAA745-AA79-4B68-A470-F091375F1006}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B587C473-3994-48FB-BF11-CA8E069FBFDB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="e5defd5c-cffd-4e83-941d-6d8fa922c6fc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="904b3e69-eb53-409b-9389-7077b55d0612"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/scenario/ScenarioPlay3.xlsx
+++ b/scenario/ScenarioPlay3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="205">
   <si>
     <t xml:space="preserve">【場所】</t>
   </si>
@@ -2204,6 +2204,9 @@
   </si>
   <si>
     <t xml:space="preserve">【ストーリークリア】四章に続く…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">END</t>
   </si>
 </sst>
 </file>
@@ -2362,10 +2365,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P143"/>
+  <dimension ref="A1:Q143"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A72" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C98" activeCellId="0" sqref="C98"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I115" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R136" activeCellId="0" sqref="R136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6401,6 +6404,9 @@
         <v>34</v>
       </c>
       <c r="P136" s="1"/>
+      <c r="Q136" s="0" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1"/>

--- a/scenario/ScenarioPlay3.xlsx
+++ b/scenario/ScenarioPlay3.xlsx
@@ -994,7 +994,7 @@
     <t xml:space="preserve">ドコン！</t>
   </si>
   <si>
-    <t xml:space="preserve">かまえ</t>
+    <t xml:space="preserve">キック</t>
   </si>
   <si>
     <t xml:space="preserve">あるみたいですね</t>
@@ -2367,8 +2367,8 @@
   </sheetPr>
   <dimension ref="A1:Q143"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I115" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R136" activeCellId="0" sqref="R136"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K15" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P39" activeCellId="0" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
